--- a/doc/LanguageWorkbench_FeatureConfiguration.xlsx
+++ b/doc/LanguageWorkbench_FeatureConfiguration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgiraudet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digitalgardeners\repo\mps-lwc25\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAF3E9-8E5C-4999-A5BE-3E0F27BB1FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65793410-A39E-4C22-9ACB-50E5A2C13CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FD4AA70-ECA5-4D89-879B-07B2E8F8F0C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7FD4AA70-ECA5-4D89-879B-07B2E8F8F0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="225">
   <si>
     <t>Language Workbench</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>&lt;Language workbench name&gt;</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>fully supported</t>
   </si>
   <si>
-    <t>Limited support</t>
-  </si>
-  <si>
     <t>not supported</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
     <t>├── Co-evolution</t>
   </si>
   <si>
-    <t>│   ├── Depreciation</t>
-  </si>
-  <si>
     <t>│   ├── Model migration customization</t>
   </si>
   <si>
@@ -494,6 +485,231 @@
   </si>
   <si>
     <t>│   └── Versioning</t>
+  </si>
+  <si>
+    <t>JetBrains MetaProgrammingSystem (MPS)</t>
+  </si>
+  <si>
+    <t>Schema-based AS definition in structure aspect</t>
+  </si>
+  <si>
+    <t>limited support</t>
+  </si>
+  <si>
+    <t>Standard static language checking of good practices and custom model checking as well as architectural patterns via mpsqa (can be run at build-time in CI)</t>
+  </si>
+  <si>
+    <t>Cell-based CS definition in editor aspect - supported by many out-of-the-box and community extensions and notations</t>
+  </si>
+  <si>
+    <t>Regular concept editor</t>
+  </si>
+  <si>
+    <t>Reflective editor for 0</t>
+  </si>
+  <si>
+    <t>Selectable via editor hints</t>
+  </si>
+  <si>
+    <t>All complex cases supported via projections, querylist, and shadowmodels</t>
+  </si>
+  <si>
+    <t>Editor aspect</t>
+  </si>
+  <si>
+    <t>Reflective editor automatically derived when no custom editor is specified</t>
+  </si>
+  <si>
+    <t>Via textgen aspect or plaintextgen language</t>
+  </si>
+  <si>
+    <t>Modular, extensible, and incremental template-based generation via default generator mechanism, function-based generation via shadowmodels, Dclare4MPS, and translator framework (to be opensourced as part of ALEF)</t>
+  </si>
+  <si>
+    <t>Template-based generation in terms of target language (concrete syntax) and model-checked</t>
+  </si>
+  <si>
+    <t>Via community-provided interpreter aspect</t>
+  </si>
+  <si>
+    <t>Both cross-model, cross-language interpretation and generation are possible</t>
+  </si>
+  <si>
+    <t>Full multi-threaded java capability through runtime plugins or interpreter framework; model access fully concurrent</t>
+  </si>
+  <si>
+    <t>Very powerful type system definitions and computations using typesystem aspect or alternatively experimental coderules aspect</t>
+  </si>
+  <si>
+    <t>Via constraints aspect (mainly pre-validation) and checking rules (post-validation)</t>
+  </si>
+  <si>
+    <t>Declarative rules for many aspects (typesystem, reduction rules for generator, computation rules for interpreter) and can be mixed with imperative code for closing gaps in practical language development</t>
+  </si>
+  <si>
+    <t>AS is defined using object grammar, separating concerns into distinct aspects, rather than intertwining them</t>
+  </si>
+  <si>
+    <t>Imperative code can be mixed into declarative definitions in various places where declarative is less practical</t>
+  </si>
+  <si>
+    <t>Through projections</t>
+  </si>
+  <si>
+    <t>Almost complete customization flexibility</t>
+  </si>
+  <si>
+    <t>Using structure definition</t>
+  </si>
+  <si>
+    <t>Not an issue due to UUID-based node identification, but name-based (re)binding checked against concept instance types possible</t>
+  </si>
+  <si>
+    <t>Solver-based typesystem unification, including debugging support</t>
+  </si>
+  <si>
+    <t>Checking rules allow for full programmatic validation and mixing into declarative constructs possible</t>
+  </si>
+  <si>
+    <t>MPS does not intertwine semantics directly into the language grammar, but there is no fundamental limtation to generate to a proving system like Coq; however we are not aware of any effort in that direction for MPS-based languages</t>
+  </si>
+  <si>
+    <t>not for all MPS-based languages, but KernelF-based languages benefit from vector-based random and equivalence class test case generation</t>
+  </si>
+  <si>
+    <t>Nearly any part of MPS can be customized</t>
+  </si>
+  <si>
+    <t>Notable examples: full java debugging in baseLanguage, full C debugging in mbeddr, computation tree debugger in KernelF</t>
+  </si>
+  <si>
+    <t>While there is no out-of-the-box omniscient debugger, the debugging framework allows creating one for a language</t>
+  </si>
+  <si>
+    <t>Only in certain contexts, e.g. string literals and richtext</t>
+  </si>
+  <si>
+    <t>Any kind of extra information (e.g. layout for a diagram) can be stored transparently in the form of node attributes</t>
+  </si>
+  <si>
+    <t>A big strength of MPS</t>
+  </si>
+  <si>
+    <t>The metalanguages are just MPS languages, so same support applies as for end-users</t>
+  </si>
+  <si>
+    <t>Generic node-based diff, using editor aspect (concrete syntax definition)</t>
+  </si>
+  <si>
+    <t>Through shadowmodels, Dclare4MPS or translator framework</t>
+  </si>
+  <si>
+    <t>By default proper node id-based references, but name (re)binding possible with resolveinfo</t>
+  </si>
+  <si>
+    <t>Transient models and tracing (backward as well as forward) of nodes in different generation steps and to their corresponding transformation rules</t>
+  </si>
+  <si>
+    <t>Possible via editor hints and simplified for end users through Projection menu</t>
+  </si>
+  <si>
+    <t>In addition, (cell-granular) mixing of different notations in a model possible</t>
+  </si>
+  <si>
+    <t>Math notation available from community extensions</t>
+  </si>
+  <si>
+    <t>Additional usability and language maintainability through grammar cells and mixed notations via richtext (both via community extensions)</t>
+  </si>
+  <si>
+    <t>Diagrammatic notation from community extensions, custom cells (e.g. pictures, any java-based UI element) possible</t>
+  </si>
+  <si>
+    <t>Tree notation from community extensions</t>
+  </si>
+  <si>
+    <t>Tabular notation from community extensions for advanced (e.g. sparse) tables, grid layout for simple tables</t>
+  </si>
+  <si>
+    <t>Through cell-granular editors and their styling</t>
+  </si>
+  <si>
+    <t>Easy with projectional editor; convenient form elements through de.itemis.mps.editor.* widget community extensions</t>
+  </si>
+  <si>
+    <t>baseLanguage can be mixed with other metalanguages (e.g. with smodel query language)</t>
+  </si>
+  <si>
+    <t>All metalanguages (editors, structure, generator, typesystem, ...) are external; nearly all of them are extensible</t>
+  </si>
+  <si>
+    <t>Any java libraries supporting fluent API have automatic import and generation of baseLanguage stubs</t>
+  </si>
+  <si>
+    <t>Extension and embedding of baseLanguage in a DSL possible</t>
+  </si>
+  <si>
+    <t>Some parts (e.g. checking rules and intentions) are more imperative, but allowing for mixing in declarative constructs of mainly functional programming (e.g. smodel queries)</t>
+  </si>
+  <si>
+    <t>Most metalanguages (e.g. generator, editor, structure, ...) are top-level declarative, sometimes allowing for mixing in of imperative constructs</t>
+  </si>
+  <si>
+    <t>Almost all artifacts are model-based</t>
+  </si>
+  <si>
+    <t>Generator is template-based</t>
+  </si>
+  <si>
+    <t>No grammars, except for object grammar in metamodel and grammar cells for concrete syntax</t>
+  </si>
+  <si>
+    <t>Each language definition aspect has a dedicated analysis/debugging capability</t>
+  </si>
+  <si>
+    <t>Each language definition aspect has a testing capability</t>
+  </si>
+  <si>
+    <t>Is just one of the aspects supported by testing capability</t>
+  </si>
+  <si>
+    <t>Cell-granular composition possible</t>
+  </si>
+  <si>
+    <t>Concept-instance-granular, model-wide, and cross-model validations possible</t>
+  </si>
+  <si>
+    <t>Notable examples: generators, typeystem</t>
+  </si>
+  <si>
+    <t>Several repositories available, from community-based to JetBrains Marketplace, from centrally hosted to locally hosted</t>
+  </si>
+  <si>
+    <t>Connection to git out of the box, others possible via plugins</t>
+  </si>
+  <si>
+    <t>Operational transform-based CRDT possible via Modelix plugin in combination with Modelix repository</t>
+  </si>
+  <si>
+    <t>CRDT-based collaboration MPS-to-MPS or MPS-to-other clients</t>
+  </si>
+  <si>
+    <t>MPS-to-MPS serverless model synchronization possible via Dclare4MPS</t>
+  </si>
+  <si>
+    <t>Java-based desktop app</t>
+  </si>
+  <si>
+    <t>Backend: fully containerized MPS for model storage and model checking services possible; Front-end: manual web-based editor definition using Modelix API possible and limited text-based automatic web-based editor derivation from MPS language definition possible</t>
+  </si>
+  <si>
+    <t>All of MPS functionality is the OpenAPI set of libraries with the metalanguages as external DSLs to abstract those APIs</t>
+  </si>
+  <si>
+    <t>Compiling an MPS language generates java classes and hot reloads them into the IDE</t>
+  </si>
+  <si>
+    <t>│   ├── Deprecation</t>
   </si>
 </sst>
 </file>
@@ -604,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -618,14 +834,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -641,6 +859,9 @@
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -655,11 +876,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{386018CC-2DD9-414B-A04F-9CCD124002F8}" name="Tableau2" displayName="Tableau2" ref="A1:C145" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{386018CC-2DD9-414B-A04F-9CCD124002F8}" name="Tableau2" displayName="Tableau2" ref="A1:C145" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:C145" xr:uid="{386018CC-2DD9-414B-A04F-9CCD124002F8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B406174F-A27E-4E0E-91B4-F2C68E845F5A}" name="Feature" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{30F54B26-B672-4A8D-BBBF-87E3312A1E8C}" name="&lt;Language workbench name&gt;"/>
+    <tableColumn id="1" xr3:uid="{B406174F-A27E-4E0E-91B4-F2C68E845F5A}" name="Feature" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{30F54B26-B672-4A8D-BBBF-87E3312A1E8C}" name="JetBrains MetaProgrammingSystem (MPS)"/>
     <tableColumn id="3" xr3:uid="{DE361FCB-B5CF-4524-8295-676BC12229C6}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -667,7 +888,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -965,1046 +1186,1566 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0467C85-CDFA-45E8-AEAF-B61FBEF68F92}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="54.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="47.36328125" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="B40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="B41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+      <c r="B46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+      <c r="B49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="B58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+      <c r="B61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="B62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
+      <c r="B66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
+      <c r="B73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="8" t="s">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+      <c r="B81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+      <c r="B84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="8" t="s">
+      <c r="B85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="8" t="s">
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="8" t="s">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="8" t="s">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="8" t="s">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="8" t="s">
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
+      <c r="B93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="8" t="s">
+      <c r="B94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="8" t="s">
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="8" t="s">
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+      <c r="B99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="8" t="s">
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
+      <c r="B102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="8" t="s">
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="8" t="s">
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="8" t="s">
+      <c r="B106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="8" t="s">
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="8" t="s">
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="8" t="s">
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
+      <c r="B110" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
+      <c r="B111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="8" t="s">
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="8" t="s">
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="8" t="s">
+      <c r="B116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="8" t="s">
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="8" t="s">
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="8" t="s">
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="8" t="s">
+      <c r="B122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="8" t="s">
+      <c r="B123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="8" t="s">
+      <c r="B124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="8" t="s">
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="8" t="s">
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="8" t="s">
+      <c r="B127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="8" t="s">
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="8" t="s">
+      <c r="B129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="8" t="s">
+      <c r="B131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="8" t="s">
+      <c r="B132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="8" t="s">
+      <c r="C134" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="8" t="s">
+      <c r="B136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="8" t="s">
+      <c r="B137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="8" t="s">
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="8" t="s">
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="8" t="s">
+      <c r="B141" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="8" t="s">
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="8" t="s">
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="8" t="s">
-        <v>149</v>
+      <c r="B145" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/LanguageWorkbench_FeatureConfiguration.xlsx
+++ b/doc/LanguageWorkbench_FeatureConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digitalgardeners\repo\mps-lwc25\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65793410-A39E-4C22-9ACB-50E5A2C13CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579FDDB-3EA4-46B5-8BC7-2C46CDDA842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7FD4AA70-ECA5-4D89-879B-07B2E8F8F0C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7FD4AA70-ECA5-4D89-879B-07B2E8F8F0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="225">
   <si>
     <t>Language Workbench</t>
   </si>
@@ -820,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -834,8 +834,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1186,20 +1185,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0467C85-CDFA-45E8-AEAF-B61FBEF68F92}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1279,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1289,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1305,7 +1304,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1333,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -1366,11 +1365,8 @@
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -1380,11 +1376,8 @@
       <c r="C15" t="s">
         <v>155</v>
       </c>
-      <c r="F15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1394,11 +1387,8 @@
       <c r="C16" t="s">
         <v>156</v>
       </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1410,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -1431,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1432,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1453,7 +1443,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1464,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -1475,7 +1465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1486,7 +1476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -1497,7 +1487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -1519,18 +1509,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
@@ -1541,18 +1531,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -1563,7 +1553,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -1574,7 +1564,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
@@ -1585,7 +1575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
@@ -1596,7 +1586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
@@ -1607,7 +1597,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
@@ -1618,7 +1608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
@@ -1629,7 +1619,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1630,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
@@ -1651,7 +1641,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
@@ -1662,7 +1652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
@@ -1673,7 +1663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
@@ -1684,7 +1674,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
@@ -1695,7 +1685,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
@@ -1706,7 +1696,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
@@ -1717,7 +1707,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
@@ -1728,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>52</v>
       </c>
@@ -1739,7 +1729,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
@@ -1747,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>54</v>
       </c>
@@ -1758,7 +1748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
@@ -1769,7 +1759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>56</v>
       </c>
@@ -1780,7 +1770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
@@ -1791,7 +1781,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>58</v>
       </c>
@@ -1802,7 +1792,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
@@ -1813,7 +1803,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>60</v>
       </c>
@@ -1824,7 +1814,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
@@ -1835,7 +1825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>62</v>
       </c>
@@ -1846,7 +1836,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>63</v>
       </c>
@@ -1857,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>64</v>
       </c>
@@ -1868,7 +1858,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>65</v>
       </c>
@@ -1879,7 +1869,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>66</v>
       </c>
@@ -1890,7 +1880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>67</v>
       </c>
@@ -1901,7 +1891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>68</v>
       </c>
@@ -1912,7 +1902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>69</v>
       </c>
@@ -1923,7 +1913,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>70</v>
       </c>
@@ -1934,7 +1924,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>71</v>
       </c>
@@ -1945,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>72</v>
       </c>
@@ -1953,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
@@ -1961,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>74</v>
       </c>
@@ -1969,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>75</v>
       </c>
@@ -1977,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>76</v>
       </c>
@@ -1988,7 +1978,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>77</v>
       </c>
@@ -1996,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>78</v>
       </c>
@@ -2007,7 +1997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>79</v>
       </c>
@@ -2018,7 +2008,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>80</v>
       </c>
@@ -2026,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>81</v>
       </c>
@@ -2034,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>82</v>
       </c>
@@ -2042,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>83</v>
       </c>
@@ -2050,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>84</v>
       </c>
@@ -2061,7 +2051,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>85</v>
       </c>
@@ -2072,7 +2062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>86</v>
       </c>
@@ -2083,7 +2073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>87</v>
       </c>
@@ -2094,7 +2084,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>88</v>
       </c>
@@ -2105,7 +2095,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>89</v>
       </c>
@@ -2116,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>90</v>
       </c>
@@ -2127,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>91</v>
       </c>
@@ -2138,7 +2128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>92</v>
       </c>
@@ -2149,7 +2139,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>93</v>
       </c>
@@ -2160,7 +2150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>94</v>
       </c>
@@ -2171,7 +2161,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>95</v>
       </c>
@@ -2182,7 +2172,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>96</v>
       </c>
@@ -2193,7 +2183,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>97</v>
       </c>
@@ -2204,7 +2194,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>98</v>
       </c>
@@ -2215,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>99</v>
       </c>
@@ -2226,7 +2216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>100</v>
       </c>
@@ -2237,7 +2227,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>101</v>
       </c>
@@ -2248,7 +2238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>102</v>
       </c>
@@ -2259,7 +2249,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>103</v>
       </c>
@@ -2270,7 +2260,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>104</v>
       </c>
@@ -2281,7 +2271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>105</v>
       </c>
@@ -2292,7 +2282,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>106</v>
       </c>
@@ -2303,7 +2293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>107</v>
       </c>
@@ -2314,7 +2304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>108</v>
       </c>
@@ -2325,7 +2315,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>109</v>
       </c>
@@ -2336,7 +2326,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>110</v>
       </c>
@@ -2347,7 +2337,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>111</v>
       </c>
@@ -2358,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>112</v>
       </c>
@@ -2369,7 +2359,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>113</v>
       </c>
@@ -2380,7 +2370,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>114</v>
       </c>
@@ -2391,7 +2381,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>115</v>
       </c>
@@ -2402,7 +2392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>116</v>
       </c>
@@ -2413,7 +2403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>117</v>
       </c>
@@ -2424,7 +2414,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>118</v>
       </c>
@@ -2435,7 +2425,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>119</v>
       </c>
@@ -2446,7 +2436,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>120</v>
       </c>
@@ -2454,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>121</v>
       </c>
@@ -2465,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>122</v>
       </c>
@@ -2473,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>123</v>
       </c>
@@ -2481,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>124</v>
       </c>
@@ -2489,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>125</v>
       </c>
@@ -2497,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>126</v>
       </c>
@@ -2508,7 +2498,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>127</v>
       </c>
@@ -2519,7 +2509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>128</v>
       </c>
@@ -2530,7 +2520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>129</v>
       </c>
@@ -2541,7 +2531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>130</v>
       </c>
@@ -2552,7 +2542,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>131</v>
       </c>
@@ -2560,7 +2550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>132</v>
       </c>
@@ -2571,7 +2561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>133</v>
       </c>
@@ -2582,7 +2572,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>134</v>
       </c>
@@ -2593,7 +2583,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>149</v>
       </c>
@@ -2604,7 +2594,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>135</v>
       </c>
@@ -2615,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>136</v>
       </c>
@@ -2626,7 +2616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>137</v>
       </c>
@@ -2637,7 +2627,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>138</v>
       </c>
@@ -2648,7 +2638,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>147</v>
       </c>
@@ -2659,7 +2649,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>139</v>
       </c>
@@ -2670,7 +2660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>140</v>
       </c>
@@ -2681,7 +2671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>141</v>
       </c>
@@ -2692,7 +2682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>142</v>
       </c>
@@ -2700,12 +2690,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>143</v>
       </c>
@@ -2716,7 +2706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>224</v>
       </c>
@@ -2724,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>144</v>
       </c>
@@ -2732,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>145</v>
       </c>
@@ -2740,7 +2730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>146</v>
       </c>
